--- a/data/trans_camb/P19C08-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.460935696435456</v>
+        <v>-1.540699256374723</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.229173194248468</v>
+        <v>-1.348927882819673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.467663926543671</v>
+        <v>-1.687656055245672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.278600905274331</v>
+        <v>-2.405517506794935</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.451318808560115</v>
+        <v>-2.481847312014284</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.453231115101982</v>
+        <v>-2.41684954023386</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.685240092481174</v>
+        <v>-1.678896013003923</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.774965885868543</v>
+        <v>-1.695533959841709</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.787894935908893</v>
+        <v>-1.784718784761142</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1277163241569211</v>
+        <v>0.127774534578146</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3801895194497301</v>
+        <v>0.4026290851898455</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.3761686763794837</v>
+        <v>-0.3692240984050366</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.5056491151666305</v>
+        <v>-0.4652140765819114</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.4431402701411558</v>
+        <v>-0.4755589908672005</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.3443216319188898</v>
+        <v>-0.3381210709173326</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.3360105424392291</v>
+        <v>-0.3237091947593211</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.4466107014535287</v>
+        <v>-0.4564068877036105</v>
       </c>
     </row>
     <row r="7">
@@ -792,10 +792,10 @@
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.9579082477322588</v>
+        <v>-0.9550554652687657</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.9675419397688441</v>
+        <v>-0.9685482710996298</v>
       </c>
       <c r="K8" s="6" t="n">
         <v>-1</v>
@@ -812,22 +812,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>-0.3221680359397367</v>
+        <v>-0.2151656373492275</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2947466035379773</v>
+        <v>0.2580223006510892</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3158347611599073</v>
+        <v>-0.1934812350587483</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.379658754239102</v>
+        <v>-0.3072827292767925</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2788889729746153</v>
+        <v>-0.2862053267220737</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.4412015088008172</v>
+        <v>-0.4655485767483661</v>
       </c>
     </row>
     <row r="10">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.07062473089883953</v>
+        <v>-0.1161030561629195</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7788616996900546</v>
+        <v>-0.8311567024996577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3900578735094232</v>
+        <v>-0.3831529454571513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2716588125243763</v>
+        <v>0.3517526408506724</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1990652673722036</v>
+        <v>-0.2057111739237834</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.1663785806176407</v>
+        <v>-0.1526885733960557</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2798204197643165</v>
+        <v>0.271411235000815</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.237554421793095</v>
+        <v>-0.290107914090185</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.1437121320947706</v>
+        <v>-0.1890469241609844</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.558249672864624</v>
+        <v>1.747767418714373</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6486940992943457</v>
+        <v>0.6429905758978736</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.78396547526808</v>
+        <v>1.783257298688626</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7263557988227506</v>
+        <v>0.7372286094153396</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6370725468228031</v>
+        <v>0.6700651192290129</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.365820299599329</v>
+        <v>1.372911255674123</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3210562744433914</v>
+        <v>0.3033165711924665</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4965911739898056</v>
+        <v>0.4951753884321064</v>
       </c>
     </row>
     <row r="13">
@@ -981,18 +981,20 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
+      <c r="C14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>0.3297479794320623</v>
+        <v>0.2424662603981772</v>
       </c>
       <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="n">
-        <v>-0.7182057789131677</v>
+        <v>-0.8090183970223237</v>
       </c>
     </row>
     <row r="15">
@@ -1008,12 +1010,10 @@
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="n">
-        <v>21.22171441160738</v>
-      </c>
+      <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>9.951785319354624</v>
+        <v>8.119923778925106</v>
       </c>
     </row>
     <row r="16">
@@ -1063,31 +1063,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2806128982875605</v>
+        <v>0.2729318536814745</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1762593184021881</v>
+        <v>-0.1091507138344119</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2413979650003845</v>
+        <v>0.1918141601705608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.09718632136243355</v>
+        <v>-0.09037059666986917</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.1213519424584984</v>
+        <v>-0.1131053690396882</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.129387992500855</v>
+        <v>0.0913119299827598</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.159938128120534</v>
+        <v>0.2096263325404769</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.08839674580673047</v>
+        <v>-0.1050120540808078</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2989217686973809</v>
+        <v>0.2882802831772328</v>
       </c>
     </row>
     <row r="18">
@@ -1098,31 +1098,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.989175270035864</v>
+        <v>2.017279037890982</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.864897290514579</v>
+        <v>0.8585316070192611</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.1578979075587</v>
+        <v>2.19669060259417</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9371380167303356</v>
+        <v>1.001659430443657</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9309340297190037</v>
+        <v>0.8731223329597536</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.228945838022994</v>
+        <v>1.194334709067141</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.144203556717847</v>
+        <v>1.105273965418799</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5835676823806744</v>
+        <v>0.5562275883846931</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.369780989508474</v>
+        <v>1.323611554091698</v>
       </c>
     </row>
     <row r="19">
@@ -1174,11 +1174,11 @@
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.009634982529778655</v>
+        <v>0.02434894877129656</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
       <c r="K20" s="6" t="n">
-        <v>0.581367894800653</v>
+        <v>0.06009900478728895</v>
       </c>
     </row>
     <row r="21">
@@ -1225,7 +1225,7 @@
         <v>-0.363561625062354</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.1507521402300011</v>
+        <v>0.150752140230001</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.1687564427749607</v>
@@ -1234,7 +1234,7 @@
         <v>-0.7432907487089367</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.2154495561671906</v>
+        <v>-0.2154495561671905</v>
       </c>
     </row>
     <row r="23">
@@ -1245,31 +1245,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.85074417677162</v>
+        <v>-1.873991491977577</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.453127924212558</v>
+        <v>-2.567224289476533</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.025360747353635</v>
+        <v>-1.933776936511782</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8602604039734054</v>
+        <v>-0.9763542369785935</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.02416424935708</v>
+        <v>-1.8203138182095</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.146408353237776</v>
+        <v>-1.157006365154023</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.9939036166957574</v>
+        <v>-1.028359093421077</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.660214427682637</v>
+        <v>-1.739902646768889</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.055452797413305</v>
+        <v>-1.10083897568691</v>
       </c>
     </row>
     <row r="24">
@@ -1280,31 +1280,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7162969664966908</v>
+        <v>0.7877922333996279</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2613931864035741</v>
+        <v>-0.2656599807305014</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3565037238317151</v>
+        <v>0.3929498362329961</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9749267849885612</v>
+        <v>0.9725174648710221</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6854575020797716</v>
+        <v>0.6778997830888532</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5228758337221203</v>
+        <v>0.5609312840782715</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.2891529862906269</v>
+        <v>-0.2893259629426014</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3093133626729662</v>
+        <v>0.3664465494586279</v>
       </c>
     </row>
     <row r="25">
@@ -1330,7 +1330,7 @@
         <v>-1</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4146536098361475</v>
+        <v>0.4146536098361473</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2270396114415296</v>
@@ -1339,7 +1339,7 @@
         <v>-1</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.289859057900851</v>
+        <v>-0.2898590579008509</v>
       </c>
     </row>
     <row r="26">
@@ -1349,22 +1349,20 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.8980095907639135</v>
+        <v>-0.8957504481492726</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.8395220187000414</v>
+        <v>-0.8428365843089464</v>
       </c>
       <c r="J26" s="6" t="inlineStr"/>
       <c r="K26" s="6" t="n">
-        <v>-0.758624722407674</v>
+        <v>-0.8014712320585414</v>
       </c>
     </row>
     <row r="27">
@@ -1374,24 +1372,20 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>1.658101236192429</v>
+        <v>2.223447796015732</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>2.260178833666888</v>
+        <v>2.456163599352446</v>
       </c>
       <c r="J27" s="6" t="inlineStr"/>
       <c r="K27" s="6" t="n">
-        <v>1.183017560846147</v>
+        <v>1.340345539222117</v>
       </c>
     </row>
     <row r="28">
@@ -1441,31 +1435,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.07962980132227714</v>
+        <v>-0.0987924146389452</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4628429033602522</v>
+        <v>-0.491622967899588</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.1427079282339281</v>
+        <v>-0.1588231524215915</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.2994654891139003</v>
+        <v>-0.3620703271831567</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6795969499326043</v>
+        <v>-0.6781301105354801</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.4203742573431615</v>
+        <v>-0.424820313830146</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1403951917442751</v>
+        <v>-0.1151457084461525</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.509522903622963</v>
+        <v>-0.4706626793970628</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.1687829817406338</v>
+        <v>-0.2007561215831695</v>
       </c>
     </row>
     <row r="30">
@@ -1476,31 +1470,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7324880315003932</v>
+        <v>0.7071107551643543</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.0733825226941108</v>
+        <v>0.08070108914025588</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6444265621062161</v>
+        <v>0.6272843156863259</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4294079365354631</v>
+        <v>0.4421601854406427</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.003817032571637</v>
+        <v>0.02823641325081522</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2633788248715536</v>
+        <v>0.2509179708506817</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4352460624457749</v>
+        <v>0.442130317478343</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.06497224174127825</v>
+        <v>-0.04614727262796545</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3324350706902652</v>
+        <v>0.3132358821744655</v>
       </c>
     </row>
     <row r="31">
@@ -1546,31 +1540,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2206302762428937</v>
+        <v>-0.2634425016970907</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9108486290842976</v>
+        <v>-0.901018565982341</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3714336495011221</v>
+        <v>-0.4182001256839292</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4720203872234158</v>
+        <v>-0.5006992922118626</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.9008199036165959</v>
+        <v>-0.8789858688249276</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5799807025793834</v>
+        <v>-0.5544893903313183</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2602282485362188</v>
+        <v>-0.1971440767022498</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8305793393799545</v>
+        <v>-0.8109492116956539</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3361151943473825</v>
+        <v>-0.3666417066464855</v>
       </c>
     </row>
     <row r="33">
@@ -1581,31 +1575,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.869859270169628</v>
+        <v>3.624063069079377</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7455971660104668</v>
+        <v>0.6683259200741912</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.55223050513746</v>
+        <v>3.03494841842901</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.341233192182558</v>
+        <v>1.402669874873619</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1055422236628744</v>
+        <v>0.3889175386885341</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.020375711991596</v>
+        <v>0.9227423157403856</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.373383841987547</v>
+        <v>1.493029146129605</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.08842933655386798</v>
+        <v>-0.09707890522332956</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.125248855341595</v>
+        <v>1.044150225261597</v>
       </c>
     </row>
     <row r="34">
